--- a/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
+++ b/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
@@ -359,12 +359,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Value_rnd</t>
+          <t>Value rounded</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Value_sci</t>
+          <t>Value scientific notation</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -374,7 +374,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Distance (in meters)</t>
+          <t>Distance (m)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -384,17 +384,17 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Elevation (in meters)</t>
+          <t>Elevation (m)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Hill Height (in meters)</t>
+          <t>Hill height (m)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Fips</t>
+          <t>FIPs</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -404,12 +404,12 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Utm_east</t>
+          <t>UTM easting</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Utm_north</t>
+          <t>UTM northing</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
@@ -424,7 +424,7 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Rec_type</t>
+          <t>Receptor type</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">

--- a/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
+++ b/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
@@ -70,13 +70,13 @@
     <t>Cancer risk</t>
   </si>
   <si>
-    <t>1.4e-08</t>
-  </si>
-  <si>
-    <t>01043</t>
-  </si>
-  <si>
-    <t>9647002030</t>
+    <t>1.9e-08</t>
+  </si>
+  <si>
+    <t>01009</t>
+  </si>
+  <si>
+    <t>1009U01294</t>
   </si>
   <si>
     <t>Census block</t>
@@ -94,13 +94,13 @@
     <t>Neurological HI</t>
   </si>
   <si>
-    <t>1.7e-03</t>
+    <t>2.3e-03</t>
   </si>
   <si>
     <t>Developmental HI</t>
   </si>
   <si>
-    <t>5.8e-06</t>
+    <t>7.8e-06</t>
   </si>
   <si>
     <t>Reproductive HI</t>
@@ -532,28 +532,28 @@
         <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>1.44198297945e-08</v>
+        <v>1.93753098288e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>1e-08</v>
+        <v>2e-08</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>312.193850036</v>
+        <v>527.79730958</v>
       </c>
       <c r="G2" t="n">
-        <v>272.019207151</v>
+        <v>187.730942074</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7</v>
+        <v>230.43</v>
       </c>
       <c r="I2" t="n">
-        <v>233.7</v>
+        <v>230.4</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -562,16 +562,16 @@
         <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>514242</v>
+        <v>514483</v>
       </c>
       <c r="M2" t="n">
-        <v>3776669</v>
+        <v>3776135</v>
       </c>
       <c r="N2" t="n">
-        <v>34.1307921</v>
+        <v>34.12597</v>
       </c>
       <c r="O2" t="n">
-        <v>-86.845546</v>
+        <v>-86.842941</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00169435720808</v>
+        <v>0.00227663546207</v>
       </c>
       <c r="C5" t="n">
         <v>0.002</v>
@@ -684,19 +684,19 @@
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>312.193850036</v>
+        <v>527.79730958</v>
       </c>
       <c r="G5" t="n">
-        <v>272.019207151</v>
+        <v>187.730942074</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7</v>
+        <v>230.43</v>
       </c>
       <c r="I5" t="n">
-        <v>233.7</v>
+        <v>230.4</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -705,16 +705,16 @@
         <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>514242</v>
+        <v>514483</v>
       </c>
       <c r="M5" t="n">
-        <v>3776669</v>
+        <v>3776135</v>
       </c>
       <c r="N5" t="n">
-        <v>34.1307921</v>
+        <v>34.12597</v>
       </c>
       <c r="O5" t="n">
-        <v>-86.845546</v>
+        <v>-86.842941</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
@@ -728,28 +728,28 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>5.76793191781e-06</v>
+        <v>7.75012393151e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>6e-06</v>
+        <v>8e-06</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>312.193850036</v>
+        <v>527.79730958</v>
       </c>
       <c r="G6" t="n">
-        <v>272.019207151</v>
+        <v>187.730942074</v>
       </c>
       <c r="H6" t="n">
-        <v>233.7</v>
+        <v>230.43</v>
       </c>
       <c r="I6" t="n">
-        <v>233.7</v>
+        <v>230.4</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -758,16 +758,16 @@
         <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>514242</v>
+        <v>514483</v>
       </c>
       <c r="M6" t="n">
-        <v>3776669</v>
+        <v>3776135</v>
       </c>
       <c r="N6" t="n">
-        <v>34.1307921</v>
+        <v>34.12597</v>
       </c>
       <c r="O6" t="n">
-        <v>-86.845546</v>
+        <v>-86.842941</v>
       </c>
       <c r="P6" t="s">
         <v>21</v>

--- a/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
+++ b/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
@@ -70,7 +70,7 @@
     <t>Cancer risk</t>
   </si>
   <si>
-    <t>1.9e-08</t>
+    <t>1.8e-08</t>
   </si>
   <si>
     <t>01009</t>
@@ -94,13 +94,13 @@
     <t>Neurological HI</t>
   </si>
   <si>
-    <t>2.3e-03</t>
+    <t>2.2e-03</t>
   </si>
   <si>
     <t>Developmental HI</t>
   </si>
   <si>
-    <t>7.8e-06</t>
+    <t>7.3e-06</t>
   </si>
   <si>
     <t>Reproductive HI</t>
@@ -532,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>1.93753098288e-08</v>
+        <v>1.83497108219e-08</v>
       </c>
       <c r="C2" t="n">
         <v>2e-08</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00227663546207</v>
+        <v>0.00215612564367</v>
       </c>
       <c r="C5" t="n">
         <v>0.002</v>
@@ -728,10 +728,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7.75012393151e-06</v>
+        <v>7.33988432877e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>8e-06</v>
+        <v>7e-06</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>

--- a/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
+++ b/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
@@ -138,10 +138,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -167,8 +175,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -475,55 +484,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
+++ b/fixtures/output/01043110000366247_maximum_indiv_risks.xlsx
@@ -70,7 +70,7 @@
     <t>Cancer risk</t>
   </si>
   <si>
-    <t>1.8e-08</t>
+    <t>1.5e-07</t>
   </si>
   <si>
     <t>01009</t>
@@ -94,13 +94,13 @@
     <t>Neurological HI</t>
   </si>
   <si>
-    <t>2.2e-03</t>
+    <t>1.7e-02</t>
   </si>
   <si>
     <t>Developmental HI</t>
   </si>
   <si>
-    <t>7.3e-06</t>
+    <t>5.9e-05</t>
   </si>
   <si>
     <t>Reproductive HI</t>
@@ -541,10 +541,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>1.83497108219e-08</v>
+        <v>1.46870870137e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>2e-08</v>
+        <v>1e-07</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -684,10 +684,10 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00215612564367</v>
+        <v>0.0172576043559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -737,10 +737,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7.33988432877e-06</v>
+        <v>5.87483480548e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7e-06</v>
+        <v>6e-05</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
